--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5743148764984622</v>
+        <v>0.5620444764988075</v>
       </c>
       <c r="D2">
-        <v>0.5658316768887763</v>
+        <v>0.5797676445682889</v>
       </c>
       <c r="E2">
         <v>0.6558405772358081</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.8436078173642089</v>
+        <v>-1.029049469922794</v>
       </c>
       <c r="D3">
-        <v>0.3990087644986107</v>
+        <v>0.3146379963373782</v>
       </c>
       <c r="E3">
         <v>0.6558405772358081</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7867611083105007</v>
+        <v>-0.9576317460933201</v>
       </c>
       <c r="D4">
-        <v>0.4315327569699088</v>
+        <v>0.3486547911505258</v>
       </c>
       <c r="E4">
         <v>0.6558405772358081</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4955432969738173</v>
+        <v>-0.5146342002074495</v>
       </c>
       <c r="D5">
-        <v>0.6202815177811263</v>
+        <v>0.6119404205409649</v>
       </c>
       <c r="E5">
         <v>0.6558405772358081</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.361246924046456</v>
+        <v>-1.071747440167249</v>
       </c>
       <c r="D6">
-        <v>0.1736183239734446</v>
+        <v>0.2954503441901517</v>
       </c>
       <c r="E6">
         <v>0.6411672943917768</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.175364279953084</v>
+        <v>-0.9350413311768538</v>
       </c>
       <c r="D7">
-        <v>0.2400156536903575</v>
+        <v>0.3599177727772571</v>
       </c>
       <c r="E7">
         <v>0.6411672943917768</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.9237224374383854</v>
+        <v>-0.8145614527874117</v>
       </c>
       <c r="D8">
-        <v>0.3557635751557671</v>
+        <v>0.424053585279232</v>
       </c>
       <c r="E8">
         <v>0.6411672943917768</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.02055580029760543</v>
+        <v>-0.0216649729928233</v>
       </c>
       <c r="D9">
-        <v>0.9836024416965197</v>
+        <v>0.9829105050912657</v>
       </c>
       <c r="E9">
         <v>0.6777322764890054</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2101431023263279</v>
+        <v>0.2235826115837342</v>
       </c>
       <c r="D10">
-        <v>0.8335814826654344</v>
+        <v>0.82514521674832</v>
       </c>
       <c r="E10">
         <v>0.6777322764890054</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.1875436655109777</v>
+        <v>0.2024479331159251</v>
       </c>
       <c r="D11">
-        <v>0.851257051584237</v>
+        <v>0.8414270690090884</v>
       </c>
       <c r="E11">
         <v>0.6782912114080593</v>
